--- a/data/_dictionary_5_manually_created.xlsx
+++ b/data/_dictionary_5_manually_created.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tn/Desktop/REASON/acfrs_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC12078F-AC3F-8D49-B831-9681B9B56CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CE42DF-4002-024C-8A97-DC1955669434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="500" windowWidth="38380" windowHeight="22980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="500" windowWidth="38380" windowHeight="22980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acfrs_NOT_in_dictionary1234" sheetId="1" r:id="rId1"/>
@@ -6798,7 +6798,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7056,6 +7056,12 @@
       <color rgb="FF212529"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="29">
@@ -7450,7 +7456,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7526,6 +7532,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="34" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="34" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -7952,9 +7959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J980"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A948" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E967" sqref="E967"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13401,7 +13408,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -13413,6 +13420,9 @@
       </c>
       <c r="D243">
         <v>189581</v>
+      </c>
+      <c r="F243" s="57">
+        <v>1806630</v>
       </c>
       <c r="H243" t="s">
         <v>321</v>
@@ -14235,7 +14245,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -14247,6 +14257,9 @@
       </c>
       <c r="D288">
         <v>189655</v>
+      </c>
+      <c r="F288" s="57">
+        <v>1806480</v>
       </c>
       <c r="H288" s="23" t="s">
         <v>321</v>
